--- a/data-raw/antivirals.xlsx
+++ b/data-raw/antivirals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t xml:space="preserve">atc</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">J05AF06</t>
   </si>
   <si>
-    <t xml:space="preserve">abacavir</t>
+    <t xml:space="preserve">Abacavir</t>
   </si>
   <si>
     <t xml:space="preserve">Nucleoside and nucleotide reverse transcriptase inhibitors</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">J05AB01</t>
   </si>
   <si>
-    <t xml:space="preserve">aciclovir</t>
+    <t xml:space="preserve">Aciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">Nucleosides and nucleotides excl. reverse transcriptase inhibitors</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">J05AF08</t>
   </si>
   <si>
-    <t xml:space="preserve">adefovir dipivoxil</t>
+    <t xml:space="preserve">Adefovir dipivoxil</t>
   </si>
   <si>
     <t xml:space="preserve">c("Adefovir di ester", "Adefovir dipivoxil", "Adefovir Dipivoxil", "Adefovir dipivoxyl", "Adefovir pivoxil", "Adefovirdipivoxl", "Bisadenine", "BISADENINE", "BisPMEA", "Hepsera", "Preveon", "YouHeDing")</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">J05AE05</t>
   </si>
   <si>
-    <t xml:space="preserve">amprenavir</t>
+    <t xml:space="preserve">Amprenavir</t>
   </si>
   <si>
     <t xml:space="preserve">Protease inhibitors</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">J05AP06</t>
   </si>
   <si>
-    <t xml:space="preserve">asunaprevir</t>
+    <t xml:space="preserve">Asunaprevir</t>
   </si>
   <si>
     <t xml:space="preserve">Antivirals for treatment of HCV infections</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">J05AE08</t>
   </si>
   <si>
-    <t xml:space="preserve">atazanavir</t>
+    <t xml:space="preserve">Atazanavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Atazanavir", "Atazanavir Base", "Latazanavir", "Reyataz", "Zrivada")</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">J05AR15</t>
   </si>
   <si>
-    <t xml:space="preserve">atazanavir and cobicistat</t>
+    <t xml:space="preserve">Atazanavir and cobicistat</t>
   </si>
   <si>
     <t xml:space="preserve">Antivirals for treatment of HIV infections, combinations</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">J05AR23</t>
   </si>
   <si>
-    <t xml:space="preserve">atazanavir and ritonavir</t>
+    <t xml:space="preserve">Atazanavir and ritonavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP03</t>
   </si>
   <si>
-    <t xml:space="preserve">boceprevir</t>
+    <t xml:space="preserve">Boceprevir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Bocepravir", "Boceprevir", "Victrelis")</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">J05AB15</t>
   </si>
   <si>
-    <t xml:space="preserve">brivudine</t>
+    <t xml:space="preserve">Brivudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Bridic", "Brivox", "Brivudin", "Brivudina", "Brivudine", "Brivudinum", "BrVdUrd", "Helpin", "Zerpex", "Zostex")</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">J05AB12</t>
   </si>
   <si>
-    <t xml:space="preserve">cidofovir</t>
+    <t xml:space="preserve">Cidofovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Cidofovir", "Cidofovir anhydrous", "Cidofovir gel", "Cidofovirum", "Forvade", "Vistide")</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">J05AF12</t>
   </si>
   <si>
-    <t xml:space="preserve">clevudine</t>
+    <t xml:space="preserve">Clevudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Clevudine", "Levovir", "Revovir")</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">J05AP07</t>
   </si>
   <si>
-    <t xml:space="preserve">daclatasvir</t>
+    <t xml:space="preserve">Daclatasvir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Daclatasvir", "Daklinza")</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">J05AE10</t>
   </si>
   <si>
-    <t xml:space="preserve">darunavir</t>
+    <t xml:space="preserve">Darunavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Darunavir", "Darunavirum", "Prezista", "Prezista Naive")</t>
@@ -188,28 +188,25 @@
     <t xml:space="preserve">J05AR14</t>
   </si>
   <si>
-    <t xml:space="preserve">darunavir and cobicistat</t>
+    <t xml:space="preserve">Darunavir and cobicistat</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP09</t>
   </si>
   <si>
-    <t xml:space="preserve">dasabuvir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dasabuvir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP52</t>
   </si>
   <si>
-    <t xml:space="preserve">dasabuvir, ombitasvir, paritaprevir and ritonavir</t>
+    <t xml:space="preserve">Dasabuvir, ombitasvir, paritaprevir and ritonavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG02</t>
   </si>
   <si>
-    <t xml:space="preserve">delavirdine</t>
+    <t xml:space="preserve">Delavirdine</t>
   </si>
   <si>
     <t xml:space="preserve">Non-nucleoside reverse transcriptase inhibitors</t>
@@ -221,7 +218,7 @@
     <t xml:space="preserve">J05AF02</t>
   </si>
   <si>
-    <t xml:space="preserve">didanosine</t>
+    <t xml:space="preserve">Didanosine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Didanosina", "Didanosine", "Didanosinum", "Dideoxyinosine", "DIDEOXYINOSINE", "Hypoxanthine ddN", "Videx", "Videx EC")</t>
@@ -230,7 +227,7 @@
     <t xml:space="preserve">J05AX12</t>
   </si>
   <si>
-    <t xml:space="preserve">dolutegravir</t>
+    <t xml:space="preserve">Dolutegravir</t>
   </si>
   <si>
     <t xml:space="preserve">Other antivirals</t>
@@ -242,13 +239,13 @@
     <t xml:space="preserve">J05AR21</t>
   </si>
   <si>
-    <t xml:space="preserve">dolutegravir and rilpivirine</t>
+    <t xml:space="preserve">Dolutegravir and rilpivirine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG06</t>
   </si>
   <si>
-    <t xml:space="preserve">doravirine</t>
+    <t xml:space="preserve">Doravirine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Doravirine", "Pifeltro")</t>
@@ -257,7 +254,7 @@
     <t xml:space="preserve">J05AG03</t>
   </si>
   <si>
-    <t xml:space="preserve">efavirenz</t>
+    <t xml:space="preserve">Efavirenz</t>
   </si>
   <si>
     <t xml:space="preserve">c("Efavirenz", "Efavirenzum", "Eravirenz", "Stocrin", "Strocin", "Sustiva")</t>
@@ -266,13 +263,13 @@
     <t xml:space="preserve">J05AP54</t>
   </si>
   <si>
-    <t xml:space="preserve">elbasvir and grazoprevir</t>
+    <t xml:space="preserve">Elbasvir and grazoprevir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX11</t>
   </si>
   <si>
-    <t xml:space="preserve">elvitegravir</t>
+    <t xml:space="preserve">Elvitegravir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Elvitegravir", "Vitekta")</t>
@@ -281,7 +278,7 @@
     <t xml:space="preserve">J05AF09</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine</t>
+    <t xml:space="preserve">Emtricitabine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Coviracil", "Emtricitabin", "Emtricitabina", "Emtricitabine", "Emtricitabinum", "Emtritabine", "Emtriva", "Racivir")</t>
@@ -290,55 +287,55 @@
     <t xml:space="preserve">J05AR17</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine and tenofovir alafenamide</t>
+    <t xml:space="preserve">Emtricitabine and tenofovir alafenamide</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR20</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir alafenamide and bictegravir</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir alafenamide and bictegravir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR19</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir alafenamide and rilpivirine</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir alafenamide and rilpivirine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR22</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir alafenamide, darunavir and cobicistat</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir alafenamide, darunavir and cobicistat</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR18</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir alafenamide, elvitegravir and cobicistat</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir alafenamide, elvitegravir and cobicistat</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR06</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir disoproxil and efavirenz</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir disoproxil and efavirenz</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR08</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir disoproxil and rilpivirine</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir disoproxil and rilpivirine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR09</t>
   </si>
   <si>
-    <t xml:space="preserve">emtricitabine, tenofovir disoproxil, elvitegravir and cobicistat</t>
+    <t xml:space="preserve">Emtricitabine, tenofovir disoproxil, elvitegravir and cobicistat</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX07</t>
   </si>
   <si>
-    <t xml:space="preserve">enfuvirtide</t>
+    <t xml:space="preserve">Enfuvirtide</t>
   </si>
   <si>
     <t xml:space="preserve">c("Enfurvitide", "Enfuvirtide", "Fuzeon", "Pentafuside")</t>
@@ -347,16 +344,13 @@
     <t xml:space="preserve">J05AX17</t>
   </si>
   <si>
-    <t xml:space="preserve">enisamium iodide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enisamium iodide</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF10</t>
   </si>
   <si>
-    <t xml:space="preserve">entecavir</t>
+    <t xml:space="preserve">Entecavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Baraclude", "Entecavir", "Entecavir anhydrous", "Entecavirum")</t>
@@ -365,7 +359,7 @@
     <t xml:space="preserve">J05AG04</t>
   </si>
   <si>
-    <t xml:space="preserve">etravirine</t>
+    <t xml:space="preserve">Etravirine</t>
   </si>
   <si>
     <t xml:space="preserve">c("DAPY deriv", "Etravine", "Etravirine", "Intelence")</t>
@@ -374,16 +368,13 @@
     <t xml:space="preserve">J05AP04</t>
   </si>
   <si>
-    <t xml:space="preserve">faldaprevir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faldaprevir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB09</t>
   </si>
   <si>
-    <t xml:space="preserve">famciclovir</t>
+    <t xml:space="preserve">Famciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Famciclovir", "Famciclovirum", "Famvir", "Oravir")</t>
@@ -392,7 +383,7 @@
     <t xml:space="preserve">J05AE07</t>
   </si>
   <si>
-    <t xml:space="preserve">fosamprenavir</t>
+    <t xml:space="preserve">Fosamprenavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Amprenavir phosphate", "Fosamprenavir", "Lexiva", "Telzir")</t>
@@ -401,7 +392,7 @@
     <t xml:space="preserve">J05AD01</t>
   </si>
   <si>
-    <t xml:space="preserve">foscarnet</t>
+    <t xml:space="preserve">Foscarnet</t>
   </si>
   <si>
     <t xml:space="preserve">Phosphonic acid derivatives</t>
@@ -413,7 +404,7 @@
     <t xml:space="preserve">J05AD02</t>
   </si>
   <si>
-    <t xml:space="preserve">fosfonet</t>
+    <t xml:space="preserve">Fosfonet</t>
   </si>
   <si>
     <t xml:space="preserve">c("Fosfonet", "Fosfonet sodium", "Fosfonet Sodium", "Fosfonoacetate", "Fosfonoacetic acid", "Phosphonacetate", "Phosphonacetic acid")</t>
@@ -422,7 +413,7 @@
     <t xml:space="preserve">J05AB06</t>
   </si>
   <si>
-    <t xml:space="preserve">ganciclovir</t>
+    <t xml:space="preserve">Ganciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Citovirax", "Cymevan", "Cymeven", "Cymevene", "Cytovene", "Cytovene IV", "Ganciclovir", "Ganciclovirum", "Gancyclovir", "Hydroxyacyclovir", "Virgan", "Vitrasert", "Zirgan")</t>
@@ -431,19 +422,19 @@
     <t xml:space="preserve">J05AP57</t>
   </si>
   <si>
-    <t xml:space="preserve">glecaprevir and pibrentasvir</t>
+    <t xml:space="preserve">Glecaprevir and pibrentasvir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX23</t>
   </si>
   <si>
-    <t xml:space="preserve">ibalizumab</t>
+    <t xml:space="preserve">Ibalizumab</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB02</t>
   </si>
   <si>
-    <t xml:space="preserve">idoxuridine</t>
+    <t xml:space="preserve">Idoxuridine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Antizona", "Dendrid", "Emanil", "Heratil", "Herpesil", "Herpid", "Herpidu", "Herplex", "HERPLEX", "Herplex liquifilm", "Idexur", "Idossuridina", "Idoxene", "Idoxuridin", "Idoxuridina", "Idoxuridine", "Idoxuridinum", "Idu Oculos", "Iducher", "Idulea", "Iduoculos", "Iduridin", "Iduviran", "Iododeoxyridine", "Iododeoxyuridine", "Iodoxuridine", "Joddeoxiuridin", "Kerecid", "Kerecide", "Ophthalmadine", "Spectanefran", "Stoxil", "Synmiol", "Virudox")</t>
@@ -452,7 +443,7 @@
     <t xml:space="preserve">J05AE02</t>
   </si>
   <si>
-    <t xml:space="preserve">indinavir</t>
+    <t xml:space="preserve">Indinavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Compound J", "Crixivan", "Indinavir", "Indinavir anhydrous", "Propolis+Indinavir")</t>
@@ -461,7 +452,7 @@
     <t xml:space="preserve">J05AX05</t>
   </si>
   <si>
-    <t xml:space="preserve">inosine pranobex</t>
+    <t xml:space="preserve">Inosine pranobex</t>
   </si>
   <si>
     <t xml:space="preserve">c("Aviral", "Delimmun", "Immunovir", "Imunovir", "Inosine pranobex", "Inosiplex", "Isoprinosin", "Isoprinosina", "Isoprinosine", "Isoviral", "Methisoprinol", "Methysoprinol", "Metisoprinol", "Viruxan")</t>
@@ -470,7 +461,7 @@
     <t xml:space="preserve">J05AF05</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine</t>
+    <t xml:space="preserve">Lamivudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Epivir", "Hepitec", "Heptivir", "Heptodin", "Heptovir", "Lamivir", "Lamivudin", "Lamivudina", "Lamivudine", "Lamivudinum", "Zeffix")</t>
@@ -479,43 +470,43 @@
     <t xml:space="preserve">J05AR02</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine and abacavir</t>
+    <t xml:space="preserve">Lamivudine and abacavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR16</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine and raltegravir</t>
+    <t xml:space="preserve">Lamivudine and raltegravir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR12</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine and tenofovir disoproxil</t>
+    <t xml:space="preserve">Lamivudine and tenofovir disoproxil</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR13</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine, abacavir and dolutegravir</t>
+    <t xml:space="preserve">Lamivudine, abacavir and dolutegravir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR24</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine, tenofovir disoproxil and doravirine</t>
+    <t xml:space="preserve">Lamivudine, tenofovir disoproxil and doravirine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR11</t>
   </si>
   <si>
-    <t xml:space="preserve">lamivudine, tenofovir disoproxil and efavirenz</t>
+    <t xml:space="preserve">Lamivudine, tenofovir disoproxil and efavirenz</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX18</t>
   </si>
   <si>
-    <t xml:space="preserve">letermovir</t>
+    <t xml:space="preserve">Letermovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Letermovir", "Prevymis")</t>
@@ -524,7 +515,7 @@
     <t xml:space="preserve">J05AR10</t>
   </si>
   <si>
-    <t xml:space="preserve">lopinavir and ritonavir</t>
+    <t xml:space="preserve">Lopinavir and ritonavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Aluvia", "Kaletra")</t>
@@ -533,7 +524,7 @@
     <t xml:space="preserve">J05AX02</t>
   </si>
   <si>
-    <t xml:space="preserve">lysozyme</t>
+    <t xml:space="preserve">Lysozyme</t>
   </si>
   <si>
     <t xml:space="preserve">c("Lysozyme chloride", "Lysozyme Chloride", "Lysozyme G")</t>
@@ -542,7 +533,7 @@
     <t xml:space="preserve">J05AX09</t>
   </si>
   <si>
-    <t xml:space="preserve">maraviroc</t>
+    <t xml:space="preserve">Maraviroc</t>
   </si>
   <si>
     <t xml:space="preserve">c("Celsentri", "Maraviroc", "Selzentry")</t>
@@ -551,7 +542,7 @@
     <t xml:space="preserve">J05AX10</t>
   </si>
   <si>
-    <t xml:space="preserve">maribavir</t>
+    <t xml:space="preserve">Maribavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Benzimidavir", "Camvia", "Maribavir")</t>
@@ -560,7 +551,7 @@
     <t xml:space="preserve">J05AA01</t>
   </si>
   <si>
-    <t xml:space="preserve">metisazone</t>
+    <t xml:space="preserve">Metisazone</t>
   </si>
   <si>
     <t xml:space="preserve">Thiosemicarbazones</t>
@@ -572,7 +563,7 @@
     <t xml:space="preserve">J05AX01</t>
   </si>
   <si>
-    <t xml:space="preserve">moroxydine</t>
+    <t xml:space="preserve">Moroxydine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Bimolin", "Flumidine", "Influmine", "Moroxidina", "Moroxydine", "Moroxydinum", "Vironil", "Virugon", "Virumin", "Wirumin")</t>
@@ -581,7 +572,7 @@
     <t xml:space="preserve">J05AE04</t>
   </si>
   <si>
-    <t xml:space="preserve">nelfinavir</t>
+    <t xml:space="preserve">Nelfinavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Nelfinavir", "Viracept")</t>
@@ -590,7 +581,7 @@
     <t xml:space="preserve">J05AG01</t>
   </si>
   <si>
-    <t xml:space="preserve">nevirapine</t>
+    <t xml:space="preserve">Nevirapine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Nevirapine", "Nevirapine anhydrous", "Viramune", "Viramune IR", "Viramune XR")</t>
@@ -599,13 +590,13 @@
     <t xml:space="preserve">J05AP53</t>
   </si>
   <si>
-    <t xml:space="preserve">ombitasvir, paritaprevir and ritonavir</t>
+    <t xml:space="preserve">Ombitasvir, paritaprevir and ritonavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AH02</t>
   </si>
   <si>
-    <t xml:space="preserve">oseltamivir</t>
+    <t xml:space="preserve">Oseltamivir</t>
   </si>
   <si>
     <t xml:space="preserve">Neuraminidase inhibitors</t>
@@ -617,7 +608,7 @@
     <t xml:space="preserve">J05AB13</t>
   </si>
   <si>
-    <t xml:space="preserve">penciclovir</t>
+    <t xml:space="preserve">Penciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Adenovir", "Denavir", "Penciceovir", "Penciclovir", "Penciclovirum", "Pencyclovir", "Vectavir")</t>
@@ -626,7 +617,7 @@
     <t xml:space="preserve">J05AX21</t>
   </si>
   <si>
-    <t xml:space="preserve">pentanedioic acid imidazolyl ethanamide</t>
+    <t xml:space="preserve">Pentanedioic acid imidazolyl ethanamide</t>
   </si>
   <si>
     <t xml:space="preserve">Ingamine</t>
@@ -635,7 +626,7 @@
     <t xml:space="preserve">J05AH03</t>
   </si>
   <si>
-    <t xml:space="preserve">peramivir</t>
+    <t xml:space="preserve">Peramivir</t>
   </si>
   <si>
     <t xml:space="preserve">c("PeramiFlu", "Peramivir", "Rapiacta", "RAPIVAB")</t>
@@ -644,7 +635,7 @@
     <t xml:space="preserve">J05AX06</t>
   </si>
   <si>
-    <t xml:space="preserve">pleconaril</t>
+    <t xml:space="preserve">Pleconaril</t>
   </si>
   <si>
     <t xml:space="preserve">c("Picovir", "Pleconaril", "Pleconarilis")</t>
@@ -653,7 +644,7 @@
     <t xml:space="preserve">J05AX08</t>
   </si>
   <si>
-    <t xml:space="preserve">raltegravir</t>
+    <t xml:space="preserve">Raltegravir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Isentress", "Raltegravir")</t>
@@ -662,7 +653,7 @@
     <t xml:space="preserve">J05AP01</t>
   </si>
   <si>
-    <t xml:space="preserve">ribavirin</t>
+    <t xml:space="preserve">Ribavirin</t>
   </si>
   <si>
     <t xml:space="preserve">c("Copegus", "Cotronak", "Drug:  Ribavirin", "Ravanex", "Rebetol", "Rebetron", "Rebretron", "Ribacine", "Ribamide", "Ribamidil", "Ribamidyl", "Ribasphere", "Ribavirin", "Ribavirin Capsules", "Ribavirina", "Ribavirine", "Ribavirinum", "Ribovirin", "Tribavirin", "Varazid", "Vilona", "Viramid", "Viramide", "Virazid", "Virazide", "Virazole")</t>
@@ -671,7 +662,7 @@
     <t xml:space="preserve">J05AG05</t>
   </si>
   <si>
-    <t xml:space="preserve">rilpivirine</t>
+    <t xml:space="preserve">Rilpivirine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Edurant", "Rilpivirine")</t>
@@ -680,7 +671,7 @@
     <t xml:space="preserve">J05AC02</t>
   </si>
   <si>
-    <t xml:space="preserve">rimantadine</t>
+    <t xml:space="preserve">Rimantadine</t>
   </si>
   <si>
     <t xml:space="preserve">Cyclic amines</t>
@@ -692,7 +683,7 @@
     <t xml:space="preserve">J05AE03</t>
   </si>
   <si>
-    <t xml:space="preserve">ritonavir</t>
+    <t xml:space="preserve">Ritonavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Norvir", "Norvir Sec", "Norvir Softgel", "Ritonavir", "Ritonavire", "Ritonavirum")</t>
@@ -701,7 +692,7 @@
     <t xml:space="preserve">J05AE01</t>
   </si>
   <si>
-    <t xml:space="preserve">saquinavir</t>
+    <t xml:space="preserve">Saquinavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Fortovase", "Invirase", "Saquinavir")</t>
@@ -710,7 +701,7 @@
     <t xml:space="preserve">J05AP05</t>
   </si>
   <si>
-    <t xml:space="preserve">simeprevir</t>
+    <t xml:space="preserve">Simeprevir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Olysio", "Simeprevir sodium")</t>
@@ -719,7 +710,7 @@
     <t xml:space="preserve">J05AP08</t>
   </si>
   <si>
-    <t xml:space="preserve">sofosbuvir</t>
+    <t xml:space="preserve">Sofosbuvir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Hepcinat", "Hepcvir", "Sofosbuvir", "Sovaldi", "SOVALDI", "SoviHep")</t>
@@ -728,13 +719,13 @@
     <t xml:space="preserve">J05AP51</t>
   </si>
   <si>
-    <t xml:space="preserve">sofosbuvir and ledipasvir</t>
+    <t xml:space="preserve">Sofosbuvir and ledipasvir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP55</t>
   </si>
   <si>
-    <t xml:space="preserve">sofosbuvir and velpatasvir</t>
+    <t xml:space="preserve">Sofosbuvir and velpatasvir</t>
   </si>
   <si>
     <t xml:space="preserve">Epclusa Tablet</t>
@@ -743,13 +734,13 @@
     <t xml:space="preserve">J05AP56</t>
   </si>
   <si>
-    <t xml:space="preserve">sofosbuvir, velpatasvir and voxilaprevir</t>
+    <t xml:space="preserve">Sofosbuvir, velpatasvir and voxilaprevir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF04</t>
   </si>
   <si>
-    <t xml:space="preserve">stavudine</t>
+    <t xml:space="preserve">Stavudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Estavudina", "Sanilvudine", "Stavudin", "Stavudine", "Stavudinum", "Zerit Xr", "Zerut XR")</t>
@@ -758,7 +749,7 @@
     <t xml:space="preserve">J05AR07</t>
   </si>
   <si>
-    <t xml:space="preserve">stavudine, lamivudine and nevirapine</t>
+    <t xml:space="preserve">Stavudine, lamivudine and nevirapine</t>
   </si>
   <si>
     <t xml:space="preserve">STAVUDIINE</t>
@@ -767,7 +758,7 @@
     <t xml:space="preserve">J05AP02</t>
   </si>
   <si>
-    <t xml:space="preserve">telaprevir</t>
+    <t xml:space="preserve">Telaprevir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Incivek", "Incivo", "Telaprevir", "Telavic")</t>
@@ -776,7 +767,7 @@
     <t xml:space="preserve">J05AF11</t>
   </si>
   <si>
-    <t xml:space="preserve">telbivudine</t>
+    <t xml:space="preserve">Telbivudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Epavudine", "Sebivo", "Telbivudin", "Telbivudine", "Tyzeka")</t>
@@ -785,7 +776,7 @@
     <t xml:space="preserve">J05AF13</t>
   </si>
   <si>
-    <t xml:space="preserve">tenofovir alafenamide</t>
+    <t xml:space="preserve">Tenofovir alafenamide</t>
   </si>
   <si>
     <t xml:space="preserve">Vemlidy</t>
@@ -794,7 +785,7 @@
     <t xml:space="preserve">J05AF07</t>
   </si>
   <si>
-    <t xml:space="preserve">tenofovir disoproxil</t>
+    <t xml:space="preserve">Tenofovir disoproxil</t>
   </si>
   <si>
     <t xml:space="preserve">c("BisPMPA", "PMPA prodrug", "Tenofovir", "Viread")</t>
@@ -803,13 +794,13 @@
     <t xml:space="preserve">J05AR03</t>
   </si>
   <si>
-    <t xml:space="preserve">tenofovir disoproxil and emtricitabine</t>
+    <t xml:space="preserve">Tenofovir disoproxil and emtricitabine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX19</t>
   </si>
   <si>
-    <t xml:space="preserve">tilorone</t>
+    <t xml:space="preserve">Tilorone</t>
   </si>
   <si>
     <t xml:space="preserve">c("Amiksin", "Amixin", "Amixin IC", "Amyxin", "Tiloron", "Tilorona", "Tilorone", "Tiloronum")</t>
@@ -818,7 +809,7 @@
     <t xml:space="preserve">J05AE09</t>
   </si>
   <si>
-    <t xml:space="preserve">tipranavir</t>
+    <t xml:space="preserve">Tipranavir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Aptivus", "Tipranavir")</t>
@@ -827,7 +818,7 @@
     <t xml:space="preserve">J05AC03</t>
   </si>
   <si>
-    <t xml:space="preserve">tromantadine</t>
+    <t xml:space="preserve">Tromantadine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Tromantadina", "Tromantadine", "Tromantadinum", "Viruserol")</t>
@@ -836,7 +827,7 @@
     <t xml:space="preserve">J05AX13</t>
   </si>
   <si>
-    <t xml:space="preserve">umifenovir</t>
+    <t xml:space="preserve">Umifenovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Arbidol", "Arbidol base", "Umifenovir")</t>
@@ -845,7 +836,7 @@
     <t xml:space="preserve">J05AB11</t>
   </si>
   <si>
-    <t xml:space="preserve">valaciclovir</t>
+    <t xml:space="preserve">Valaciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Talavir", "Valaciclovir", "Valaciclovirum", "ValACV", "Valcivir", "Valcyclovir", "Valtrex", "Virval", "Zelitrex")</t>
@@ -854,7 +845,7 @@
     <t xml:space="preserve">J05AB14</t>
   </si>
   <si>
-    <t xml:space="preserve">valganciclovir</t>
+    <t xml:space="preserve">Valganciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">c("Cymeval", "Valganciclovir")</t>
@@ -863,7 +854,7 @@
     <t xml:space="preserve">J05AB03</t>
   </si>
   <si>
-    <t xml:space="preserve">vidarabine</t>
+    <t xml:space="preserve">Vidarabine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Adenine arabinoside", "Araadenosine", "Arabinoside adenine", "Arabinosyl adenine", "Arabinosyladenine", "Spongoadenosine", "Vidarabin", "Vidarabina", "Vidarabine", "Vidarabine anhydrous", "Vidarabinum", "Vira A", "Vira ATM")</t>
@@ -872,7 +863,7 @@
     <t xml:space="preserve">J05AF03</t>
   </si>
   <si>
-    <t xml:space="preserve">zalcitabine</t>
+    <t xml:space="preserve">Zalcitabine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Dideoxycytidine", "Interferon AD + ddC", "Zalcitabine", "Zalcitibine")</t>
@@ -881,7 +872,7 @@
     <t xml:space="preserve">J05AH01</t>
   </si>
   <si>
-    <t xml:space="preserve">zanamivir</t>
+    <t xml:space="preserve">Zanamivir</t>
   </si>
   <si>
     <t xml:space="preserve">c("MODIFIED SIALIC ACID", "Relenza", "Zanamavir", "Zanamir", "Zanamivi", "Zanamivir", "Zanamivir hydrate")</t>
@@ -890,7 +881,7 @@
     <t xml:space="preserve">J05AF01</t>
   </si>
   <si>
-    <t xml:space="preserve">zidovudine</t>
+    <t xml:space="preserve">Zidovudine</t>
   </si>
   <si>
     <t xml:space="preserve">c("Azidothymidine", "AZT Antiviral", "Beta interferon", "Compound S", "Propolis+AZT", "Retrovir", "Zidovudina", "Zidovudine", "ZIDOVUDINE", "Zidovudine EP III", "Zidovudinum")</t>
@@ -899,19 +890,19 @@
     <t xml:space="preserve">J05AR01</t>
   </si>
   <si>
-    <t xml:space="preserve">zidovudine and lamivudine</t>
+    <t xml:space="preserve">Zidovudine and lamivudine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR04</t>
   </si>
   <si>
-    <t xml:space="preserve">zidovudine, lamivudine and abacavir</t>
+    <t xml:space="preserve">Zidovudine, lamivudine and abacavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR05</t>
   </si>
   <si>
-    <t xml:space="preserve">zidovudine, lamivudine and nevirapine</t>
+    <t xml:space="preserve">Zidovudine, lamivudine and nevirapine</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
         <v>0.5</v>
@@ -1662,11 +1653,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1681,19 +1672,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n">
         <v>5625</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
       </c>
       <c r="F19" t="n">
         <v>1.2</v>
@@ -1706,19 +1697,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="n">
         <v>135398739</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="n">
         <v>0.4</v>
@@ -1731,19 +1722,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="n">
         <v>54726191</v>
       </c>
       <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
       </c>
       <c r="F21" t="n">
         <v>50</v>
@@ -1756,13 +1747,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="n">
         <v>131801472</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1777,19 +1768,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="n">
         <v>58460047</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -1798,19 +1789,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" t="n">
         <v>64139</v>
       </c>
       <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
       </c>
       <c r="F24" t="n">
         <v>0.6</v>
@@ -1823,13 +1814,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="n">
         <v>91669168</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1844,19 +1835,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="n">
         <v>5277135</v>
       </c>
       <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1865,19 +1856,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="n">
         <v>60877</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
@@ -1890,13 +1881,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="n">
         <v>90469070</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -1911,11 +1902,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1930,11 +1921,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -1949,11 +1940,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -1968,11 +1959,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1987,11 +1978,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -2006,11 +1997,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -2025,11 +2016,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -2044,19 +2035,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="n">
         <v>16130199</v>
       </c>
       <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
         <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -2069,19 +2060,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="n">
         <v>10089466</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" t="n">
         <v>1.5</v>
@@ -2094,19 +2085,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" t="n">
         <v>135398508</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" t="n">
         <v>0.5</v>
@@ -2119,19 +2110,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" t="n">
         <v>193962</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F39" t="n">
         <v>0.4</v>
@@ -2144,19 +2135,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" t="n">
         <v>42601552</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -2165,19 +2156,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" t="n">
         <v>3324</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F41" t="n">
         <v>0.75</v>
@@ -2190,19 +2181,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" t="n">
         <v>131536</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F42" t="n">
         <v>1.4</v>
@@ -2215,19 +2206,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" t="n">
         <v>3415</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -2240,19 +2231,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" t="n">
         <v>546</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -2261,19 +2252,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" t="n">
         <v>135398740</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
@@ -2290,11 +2281,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -2309,14 +2300,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -2328,19 +2319,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48" t="n">
         <v>5905</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
@@ -2349,19 +2340,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49" t="n">
         <v>5362440</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
         <v>2.4</v>
@@ -2374,19 +2365,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B50" t="n">
         <v>135449284</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
@@ -2399,19 +2390,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B51" t="n">
         <v>60825</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" t="n">
         <v>0.3</v>
@@ -2424,11 +2415,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -2443,13 +2434,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" t="n">
         <v>73386700</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -2464,11 +2455,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -2483,11 +2474,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -2502,11 +2493,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -2521,11 +2512,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -2540,19 +2531,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B58" t="n">
         <v>45138674</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F58" t="n">
         <v>0.48</v>
@@ -2569,19 +2560,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B59" t="n">
         <v>11979606</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F59" t="n">
         <v>0.8</v>
@@ -2594,19 +2585,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" t="n">
         <v>24839946</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -2615,19 +2606,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B61" t="n">
         <v>3002977</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" t="n">
         <v>0.6</v>
@@ -2640,19 +2631,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B62" t="n">
         <v>471161</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
@@ -2661,19 +2652,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B63" t="n">
         <v>667492</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
@@ -2682,19 +2673,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B64" t="n">
         <v>71655</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F64" t="n">
         <v>0.3</v>
@@ -2707,19 +2698,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B65" t="n">
         <v>64143</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F65" t="n">
         <v>2.25</v>
@@ -2732,19 +2723,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B66" t="n">
         <v>4463</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F66" t="n">
         <v>0.4</v>
@@ -2757,11 +2748,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
@@ -2776,19 +2767,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B68" t="n">
         <v>65028</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F68" t="n">
         <v>0.15</v>
@@ -2801,19 +2792,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B69" t="n">
         <v>135398748</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
@@ -2822,19 +2813,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B70" t="n">
         <v>9942657</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F70" t="n">
         <v>90</v>
@@ -2847,19 +2838,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B71" t="n">
         <v>154234</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
@@ -2868,19 +2859,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B72" t="n">
         <v>1684</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -2889,19 +2880,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B73" t="n">
         <v>54671008</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F73" t="n">
         <v>0.8</v>
@@ -2914,19 +2905,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B74" t="n">
         <v>37542</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2939,19 +2930,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B75" t="n">
         <v>6451164</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F75" t="n">
         <v>25</v>
@@ -2964,19 +2955,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B76" t="n">
         <v>5071</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F76" t="n">
         <v>0.2</v>
@@ -2989,19 +2980,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B77" t="n">
         <v>392622</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F77" t="n">
         <v>1.2</v>
@@ -3014,19 +3005,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B78" t="n">
         <v>441243</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F78" t="n">
         <v>1.8</v>
@@ -3039,19 +3030,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B79" t="n">
         <v>24873435</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F79" t="n">
         <v>0.15</v>
@@ -3064,19 +3055,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B80" t="n">
         <v>45375808</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F80" t="n">
         <v>0.4</v>
@@ -3089,13 +3080,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B81" t="n">
         <v>72734365</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
@@ -3110,19 +3101,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B82" t="n">
         <v>91885554</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -3131,11 +3122,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
@@ -3150,19 +3141,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B84" t="n">
         <v>18283</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F84" t="n">
         <v>80</v>
@@ -3175,19 +3166,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B85" t="n">
         <v>15979285</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -3196,19 +3187,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B86" t="n">
         <v>3010818</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F86" t="n">
         <v>2.25</v>
@@ -3221,19 +3212,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B87" t="n">
         <v>159269</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F87" t="n">
         <v>0.6</v>
@@ -3246,19 +3237,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B88" t="n">
         <v>9574768</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F88" t="n">
         <v>25</v>
@@ -3271,19 +3262,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B89" t="n">
         <v>5481350</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F89" t="n">
         <v>0.245</v>
@@ -3296,11 +3287,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
@@ -3315,19 +3306,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B91" t="n">
         <v>5475</v>
       </c>
       <c r="C91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F91" t="n">
         <v>0.125</v>
@@ -3340,19 +3331,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B92" t="n">
         <v>54682461</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -3365,19 +3356,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B93" t="n">
         <v>64377</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
@@ -3386,19 +3377,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B94" t="n">
         <v>131411</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F94" t="n">
         <v>0.8</v>
@@ -3411,19 +3402,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B95" t="n">
         <v>135398742</v>
       </c>
       <c r="C95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F95" t="n">
         <v>3</v>
@@ -3436,19 +3427,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B96" t="n">
         <v>135413535</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F96" t="n">
         <v>0.9</v>
@@ -3461,19 +3452,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B97" t="n">
         <v>21704</v>
       </c>
       <c r="C97" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
@@ -3482,19 +3473,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B98" t="n">
         <v>24066</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F98" t="n">
         <v>2.25</v>
@@ -3507,19 +3498,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B99" t="n">
         <v>60855</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
@@ -3528,19 +3519,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B100" t="n">
         <v>35370</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F100" t="n">
         <v>0.6</v>
@@ -3557,11 +3548,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
@@ -3576,11 +3567,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B102"/>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -3595,11 +3586,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B103"/>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>

--- a/data-raw/antivirals.xlsx
+++ b/data-raw/antivirals.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1227,12 +1227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/data-raw/antivirals.xlsx
+++ b/data-raw/antivirals.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Nucleoside and nucleotide reverse transcriptase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Abacavir", "Abacavir sulfate", "Ziagen")</t>
+    <t xml:space="preserve">Abacavir,Abacavir sulfate,Ziagen</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Nucleosides and nucleotides excl. reverse transcriptase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Acicloftal", "Aciclovier", "Aciclovir", "Aciclovirum", "Activir", "AcycloFoam", "Acycloguanosine", "Acyclovir", "Acyclovir Lauriad", "ACYCLOVIR SODIUM", "Avirax", "Cargosil", "Cyclovir", "Genvir", "Gerpevir", "Hascovir", "Herpevir", "Maynar", "Poviral", "Sitavig", "Sitavir", "Vipral", "Virolex", "Viropump", "Virorax", "Zovirax", "Zovirax topical", "Zyclir")</t>
+    <t xml:space="preserve">Acicloftal,Aciclovier,Aciclovir,Aciclovirum,Activir,AcycloFoam,Acycloguanosine,Acyclovir,Acyclovir Lauriad,ACYCLOVIR SODIUM,Avirax,Cargosil,Cyclovir,Genvir,Gerpevir,Hascovir,Herpevir,Maynar,Poviral,Sitavig,Sitavir,Vipral,Virolex,Viropump,Virorax,Zovirax,Zovirax topical,Zyclir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF08</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Adefovir dipivoxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Adefovir di ester", "Adefovir dipivoxil", "Adefovir Dipivoxil", "Adefovir dipivoxyl", "Adefovir pivoxil", "Adefovirdipivoxl", "Bisadenine", "BISADENINE", "BisPMEA", "Hepsera", "Preveon", "YouHeDing")</t>
+    <t xml:space="preserve">Adefovir di ester,Adefovir dipivoxil,Adefovir Dipivoxil,Adefovir dipivoxyl,Adefovir pivoxil,Adefovirdipivoxl,Bisadenine,BISADENINE,BisPMEA,Hepsera,Preveon,YouHeDing</t>
   </si>
   <si>
     <t xml:space="preserve">mg</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Protease inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Agenerase", "Amprenavir", "Amprenavirum", "Prozei", "Vertex")</t>
+    <t xml:space="preserve">Agenerase,Amprenavir,Amprenavirum,Prozei,Vertex</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP06</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Antivirals for treatment of HCV infections</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Asunaprevir", "Sunvepra")</t>
+    <t xml:space="preserve">Asunaprevir,Sunvepra</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE08</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Atazanavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Atazanavir", "Atazanavir Base", "Latazanavir", "Reyataz", "Zrivada")</t>
+    <t xml:space="preserve">Atazanavir,Atazanavir Base,Latazanavir,Reyataz,Zrivada</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR15</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Boceprevir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Bocepravir", "Boceprevir", "Victrelis")</t>
+    <t xml:space="preserve">Bocepravir,Boceprevir,Victrelis</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB15</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Brivudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Bridic", "Brivox", "Brivudin", "Brivudina", "Brivudine", "Brivudinum", "BrVdUrd", "Helpin", "Zerpex", "Zostex")</t>
+    <t xml:space="preserve">Bridic,Brivox,Brivudin,Brivudina,Brivudine,Brivudinum,BrVdUrd,Helpin,Zerpex,Zostex</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB12</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">Cidofovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Cidofovir", "Cidofovir anhydrous", "Cidofovir gel", "Cidofovirum", "Forvade", "Vistide")</t>
+    <t xml:space="preserve">Cidofovir,Cidofovir anhydrous,Cidofovir gel,Cidofovirum,Forvade,Vistide</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF12</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Clevudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Clevudine", "Levovir", "Revovir")</t>
+    <t xml:space="preserve">Clevudine,Levovir,Revovir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP07</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Daclatasvir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Daclatasvir", "Daklinza")</t>
+    <t xml:space="preserve">Daclatasvir,Daklinza</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE10</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">Darunavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Darunavir", "Darunavirum", "Prezista", "Prezista Naive")</t>
+    <t xml:space="preserve">Darunavir,Darunavirum,Prezista,Prezista Naive</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR14</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Non-nucleoside reverse transcriptase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("BHAP der", "Delavirdin", "Delavirdina", "Delavirdine", "Delavirdinum", "PIPERAZINE", "Rescriptor")</t>
+    <t xml:space="preserve">BHAP der,Delavirdin,Delavirdina,Delavirdine,Delavirdinum,PIPERAZINE,Rescriptor</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF02</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">Didanosine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Didanosina", "Didanosine", "Didanosinum", "Dideoxyinosine", "DIDEOXYINOSINE", "Hypoxanthine ddN", "Videx", "Videx EC")</t>
+    <t xml:space="preserve">Didanosina,Didanosine,Didanosinum,Dideoxyinosine,DIDEOXYINOSINE,Hypoxanthine ddN,Videx,Videx EC</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX12</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Other antivirals</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Dolutegravir", "Dolutegravir Sodium", "Soltegravir", "Tivicay")</t>
+    <t xml:space="preserve">Dolutegravir,Dolutegravir Sodium,Soltegravir,Tivicay</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR21</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">Doravirine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Doravirine", "Pifeltro")</t>
+    <t xml:space="preserve">Doravirine,Pifeltro</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG03</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">Efavirenz</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Efavirenz", "Efavirenzum", "Eravirenz", "Stocrin", "Strocin", "Sustiva")</t>
+    <t xml:space="preserve">Efavirenz,Efavirenzum,Eravirenz,Stocrin,Strocin,Sustiva</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP54</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">Elvitegravir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Elvitegravir", "Vitekta")</t>
+    <t xml:space="preserve">Elvitegravir,Vitekta</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF09</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">Emtricitabine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Coviracil", "Emtricitabin", "Emtricitabina", "Emtricitabine", "Emtricitabinum", "Emtritabine", "Emtriva", "Racivir")</t>
+    <t xml:space="preserve">Coviracil,Emtricitabin,Emtricitabina,Emtricitabine,Emtricitabinum,Emtritabine,Emtriva,Racivir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR17</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">Enfuvirtide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Enfurvitide", "Enfuvirtide", "Fuzeon", "Pentafuside")</t>
+    <t xml:space="preserve">Enfurvitide,Enfuvirtide,Fuzeon,Pentafuside</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX17</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">Entecavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Baraclude", "Entecavir", "Entecavir anhydrous", "Entecavirum")</t>
+    <t xml:space="preserve">Baraclude,Entecavir,Entecavir anhydrous,Entecavirum</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG04</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">Etravirine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("DAPY deriv", "Etravine", "Etravirine", "Intelence")</t>
+    <t xml:space="preserve">DAPY deriv,Etravine,Etravirine,Intelence</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP04</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">Famciclovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Famciclovir", "Famciclovirum", "Famvir", "Oravir")</t>
+    <t xml:space="preserve">Famciclovir,Famciclovirum,Famvir,Oravir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE07</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">Fosamprenavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Amprenavir phosphate", "Fosamprenavir", "Lexiva", "Telzir")</t>
+    <t xml:space="preserve">Amprenavir phosphate,Fosamprenavir,Lexiva,Telzir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AD01</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">Phosphonic acid derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Forscarnet", "Forscarnet sodium", "Foscarmet", "Foscarnet", "Phosphonoformate", "Phosphonoformic acid")</t>
+    <t xml:space="preserve">Forscarnet,Forscarnet sodium,Foscarmet,Foscarnet,Phosphonoformate,Phosphonoformic acid</t>
   </si>
   <si>
     <t xml:space="preserve">J05AD02</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Fosfonet</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Fosfonet", "Fosfonet sodium", "Fosfonet Sodium", "Fosfonoacetate", "Fosfonoacetic acid", "Phosphonacetate", "Phosphonacetic acid")</t>
+    <t xml:space="preserve">Fosfonet,Fosfonet sodium,Fosfonet Sodium,Fosfonoacetate,Fosfonoacetic acid,Phosphonacetate,Phosphonacetic acid</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB06</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Ganciclovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Citovirax", "Cymevan", "Cymeven", "Cymevene", "Cytovene", "Cytovene IV", "Ganciclovir", "Ganciclovirum", "Gancyclovir", "Hydroxyacyclovir", "Virgan", "Vitrasert", "Zirgan")</t>
+    <t xml:space="preserve">Citovirax,Cymevan,Cymeven,Cymevene,Cytovene,Cytovene IV,Ganciclovir,Ganciclovirum,Gancyclovir,Hydroxyacyclovir,Virgan,Vitrasert,Zirgan</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP57</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">Idoxuridine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Antizona", "Dendrid", "Emanil", "Heratil", "Herpesil", "Herpid", "Herpidu", "Herplex", "HERPLEX", "Herplex liquifilm", "Idexur", "Idossuridina", "Idoxene", "Idoxuridin", "Idoxuridina", "Idoxuridine", "Idoxuridinum", "Idu Oculos", "Iducher", "Idulea", "Iduoculos", "Iduridin", "Iduviran", "Iododeoxyridine", "Iododeoxyuridine", "Iodoxuridine", "Joddeoxiuridin", "Kerecid", "Kerecide", "Ophthalmadine", "Spectanefran", "Stoxil", "Synmiol", "Virudox")</t>
+    <t xml:space="preserve">Antizona,Dendrid,Emanil,Heratil,Herpesil,Herpid,Herpidu,Herplex,HERPLEX,Herplex liquifilm,Idexur,Idossuridina,Idoxene,Idoxuridin,Idoxuridina,Idoxuridine,Idoxuridinum,Idu Oculos,Iducher,Idulea,Iduoculos,Iduridin,Iduviran,Iododeoxyridine,Iododeoxyuridine,Iodoxuridine,Joddeoxiuridin,Kerecid,Kerecide,Ophthalmadine,Spectanefran,Stoxil,Synmiol,Virudox</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE02</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">Indinavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Compound J", "Crixivan", "Indinavir", "Indinavir anhydrous", "Propolis+Indinavir")</t>
+    <t xml:space="preserve">Compound J,Crixivan,Indinavir,Indinavir anhydrous,Propolis+Indinavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX05</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">Inosine pranobex</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Aviral", "Delimmun", "Immunovir", "Imunovir", "Inosine pranobex", "Inosiplex", "Isoprinosin", "Isoprinosina", "Isoprinosine", "Isoviral", "Methisoprinol", "Methysoprinol", "Metisoprinol", "Viruxan")</t>
+    <t xml:space="preserve">Aviral,Delimmun,Immunovir,Imunovir,Inosine pranobex,Inosiplex,Isoprinosin,Isoprinosina,Isoprinosine,Isoviral,Methisoprinol,Methysoprinol,Metisoprinol,Viruxan</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF05</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">Lamivudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Epivir", "Hepitec", "Heptivir", "Heptodin", "Heptovir", "Lamivir", "Lamivudin", "Lamivudina", "Lamivudine", "Lamivudinum", "Zeffix")</t>
+    <t xml:space="preserve">Epivir,Hepitec,Heptivir,Heptodin,Heptovir,Lamivir,Lamivudin,Lamivudina,Lamivudine,Lamivudinum,Zeffix</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR02</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">Letermovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Letermovir", "Prevymis")</t>
+    <t xml:space="preserve">Letermovir,Prevymis</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR10</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">Lopinavir and ritonavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Aluvia", "Kaletra")</t>
+    <t xml:space="preserve">Aluvia,Kaletra</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX02</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">Lysozyme</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Lysozyme chloride", "Lysozyme Chloride", "Lysozyme G")</t>
+    <t xml:space="preserve">Lysozyme chloride,Lysozyme Chloride,Lysozyme G</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX09</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">Maraviroc</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Celsentri", "Maraviroc", "Selzentry")</t>
+    <t xml:space="preserve">Celsentri,Maraviroc,Selzentry</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX10</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Maribavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Benzimidavir", "Camvia", "Maribavir")</t>
+    <t xml:space="preserve">Benzimidavir,Camvia,Maribavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AA01</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">Thiosemicarbazones</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Kemoviran", "Marboran", "Marborane", "Methisazon", "Methisazone", "Methsazone", "Metisazon", "Metisazona", "Metisazone", "Metisazonum", "Viruzona")</t>
+    <t xml:space="preserve">Kemoviran,Marboran,Marborane,Methisazon,Methisazone,Methsazone,Metisazon,Metisazona,Metisazone,Metisazonum,Viruzona</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX01</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">Moroxydine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Bimolin", "Flumidine", "Influmine", "Moroxidina", "Moroxydine", "Moroxydinum", "Vironil", "Virugon", "Virumin", "Wirumin")</t>
+    <t xml:space="preserve">Bimolin,Flumidine,Influmine,Moroxidina,Moroxydine,Moroxydinum,Vironil,Virugon,Virumin,Wirumin</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE04</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">Nelfinavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Nelfinavir", "Viracept")</t>
+    <t xml:space="preserve">Nelfinavir,Viracept</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG01</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Nevirapine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Nevirapine", "Nevirapine anhydrous", "Viramune", "Viramune IR", "Viramune XR")</t>
+    <t xml:space="preserve">Nevirapine,Nevirapine anhydrous,Viramune,Viramune IR,Viramune XR</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP53</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">Neuraminidase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Agucort", "Oseltamivir", "Tamiflu", "Tamvir")</t>
+    <t xml:space="preserve">Agucort,Oseltamivir,Tamiflu,Tamvir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB13</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">Penciclovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Adenovir", "Denavir", "Penciceovir", "Penciclovir", "Penciclovirum", "Pencyclovir", "Vectavir")</t>
+    <t xml:space="preserve">Adenovir,Denavir,Penciceovir,Penciclovir,Penciclovirum,Pencyclovir,Vectavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX21</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Peramivir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("PeramiFlu", "Peramivir", "Rapiacta", "RAPIVAB")</t>
+    <t xml:space="preserve">PeramiFlu,Peramivir,Rapiacta,RAPIVAB</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX06</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">Pleconaril</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Picovir", "Pleconaril", "Pleconarilis")</t>
+    <t xml:space="preserve">Picovir,Pleconaril,Pleconarilis</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX08</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">Raltegravir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Isentress", "Raltegravir")</t>
+    <t xml:space="preserve">Isentress,Raltegravir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP01</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">Ribavirin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Copegus", "Cotronak", "Drug:  Ribavirin", "Ravanex", "Rebetol", "Rebetron", "Rebretron", "Ribacine", "Ribamide", "Ribamidil", "Ribamidyl", "Ribasphere", "Ribavirin", "Ribavirin Capsules", "Ribavirina", "Ribavirine", "Ribavirinum", "Ribovirin", "Tribavirin", "Varazid", "Vilona", "Viramid", "Viramide", "Virazid", "Virazide", "Virazole")</t>
+    <t xml:space="preserve">Copegus,Cotronak,Drug:  Ribavirin,Ravanex,Rebetol,Rebetron,Rebretron,Ribacine,Ribamide,Ribamidil,Ribamidyl,Ribasphere,Ribavirin,Ribavirin Capsules,Ribavirina,Ribavirine,Ribavirinum,Ribovirin,Tribavirin,Varazid,Vilona,Viramid,Viramide,Virazid,Virazide,Virazole</t>
   </si>
   <si>
     <t xml:space="preserve">J05AG05</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">Rilpivirine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Edurant", "Rilpivirine")</t>
+    <t xml:space="preserve">Edurant,Rilpivirine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AC02</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">Cyclic amines</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Remantadine", "Riamantadine", "Rimant", "RIMANTADIN", "Rimantadin A", "Rimantadina", "Rimantadine", "Rimantadinum")</t>
+    <t xml:space="preserve">Remantadine,Riamantadine,Rimant,RIMANTADIN,Rimantadin A,Rimantadina,Rimantadine,Rimantadinum</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE03</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ritonavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Norvir", "Norvir Sec", "Norvir Softgel", "Ritonavir", "Ritonavire", "Ritonavirum")</t>
+    <t xml:space="preserve">Norvir,Norvir Sec,Norvir Softgel,Ritonavir,Ritonavire,Ritonavirum</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE01</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Saquinavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Fortovase", "Invirase", "Saquinavir")</t>
+    <t xml:space="preserve">Fortovase,Invirase,Saquinavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP05</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">Simeprevir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Olysio", "Simeprevir sodium")</t>
+    <t xml:space="preserve">Olysio,Simeprevir sodium</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP08</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Sofosbuvir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Hepcinat", "Hepcvir", "Sofosbuvir", "Sovaldi", "SOVALDI", "SoviHep")</t>
+    <t xml:space="preserve">Hepcinat,Hepcvir,Sofosbuvir,Sovaldi,SOVALDI,SoviHep</t>
   </si>
   <si>
     <t xml:space="preserve">J05AP51</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">Stavudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Estavudina", "Sanilvudine", "Stavudin", "Stavudine", "Stavudinum", "Zerit Xr", "Zerut XR")</t>
+    <t xml:space="preserve">Estavudina,Sanilvudine,Stavudin,Stavudine,Stavudinum,Zerit Xr,Zerut XR</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR07</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">Telaprevir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Incivek", "Incivo", "Telaprevir", "Telavic")</t>
+    <t xml:space="preserve">Incivek,Incivo,Telaprevir,Telavic</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF11</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">Telbivudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Epavudine", "Sebivo", "Telbivudin", "Telbivudine", "Tyzeka")</t>
+    <t xml:space="preserve">Epavudine,Sebivo,Telbivudin,Telbivudine,Tyzeka</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF13</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">Tenofovir disoproxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("BisPMPA", "PMPA prodrug", "Tenofovir", "Viread")</t>
+    <t xml:space="preserve">BisPMPA,PMPA prodrug,Tenofovir,Viread</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR03</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">Tilorone</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Amiksin", "Amixin", "Amixin IC", "Amyxin", "Tiloron", "Tilorona", "Tilorone", "Tiloronum")</t>
+    <t xml:space="preserve">Amiksin,Amixin,Amixin IC,Amyxin,Tiloron,Tilorona,Tilorone,Tiloronum</t>
   </si>
   <si>
     <t xml:space="preserve">J05AE09</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">Tipranavir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Aptivus", "Tipranavir")</t>
+    <t xml:space="preserve">Aptivus,Tipranavir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AC03</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">Tromantadine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Tromantadina", "Tromantadine", "Tromantadinum", "Viruserol")</t>
+    <t xml:space="preserve">Tromantadina,Tromantadine,Tromantadinum,Viruserol</t>
   </si>
   <si>
     <t xml:space="preserve">J05AX13</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">Umifenovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Arbidol", "Arbidol base", "Umifenovir")</t>
+    <t xml:space="preserve">Arbidol,Arbidol base,Umifenovir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB11</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">Valaciclovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Talavir", "Valaciclovir", "Valaciclovirum", "ValACV", "Valcivir", "Valcyclovir", "Valtrex", "Virval", "Zelitrex")</t>
+    <t xml:space="preserve">Talavir,Valaciclovir,Valaciclovirum,ValACV,Valcivir,Valcyclovir,Valtrex,Virval,Zelitrex</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB14</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">Valganciclovir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Cymeval", "Valganciclovir")</t>
+    <t xml:space="preserve">Cymeval,Valganciclovir</t>
   </si>
   <si>
     <t xml:space="preserve">J05AB03</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">Vidarabine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Adenine arabinoside", "Araadenosine", "Arabinoside adenine", "Arabinosyl adenine", "Arabinosyladenine", "Spongoadenosine", "Vidarabin", "Vidarabina", "Vidarabine", "Vidarabine anhydrous", "Vidarabinum", "Vira A", "Vira ATM")</t>
+    <t xml:space="preserve">Adenine arabinoside,Araadenosine,Arabinoside adenine,Arabinosyl adenine,Arabinosyladenine,Spongoadenosine,Vidarabin,Vidarabina,Vidarabine,Vidarabine anhydrous,Vidarabinum,Vira A,Vira ATM</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF03</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">Zalcitabine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Dideoxycytidine", "Interferon AD + ddC", "Zalcitabine", "Zalcitibine")</t>
+    <t xml:space="preserve">Dideoxycytidine,Interferon AD + ddC,Zalcitabine,Zalcitibine</t>
   </si>
   <si>
     <t xml:space="preserve">J05AH01</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">Zanamivir</t>
   </si>
   <si>
-    <t xml:space="preserve">c("MODIFIED SIALIC ACID", "Relenza", "Zanamavir", "Zanamir", "Zanamivi", "Zanamivir", "Zanamivir hydrate")</t>
+    <t xml:space="preserve">MODIFIED SIALIC ACID,Relenza,Zanamavir,Zanamir,Zanamivi,Zanamivir,Zanamivir hydrate</t>
   </si>
   <si>
     <t xml:space="preserve">J05AF01</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">Zidovudine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Azidothymidine", "AZT Antiviral", "Beta interferon", "Compound S", "Propolis+AZT", "Retrovir", "Zidovudina", "Zidovudine", "ZIDOVUDINE", "Zidovudine EP III", "Zidovudinum")</t>
+    <t xml:space="preserve">Azidothymidine,AZT Antiviral,Beta interferon,Compound S,Propolis+AZT,Retrovir,Zidovudina,Zidovudine,ZIDOVUDINE,Zidovudine EP III,Zidovudinum</t>
   </si>
   <si>
     <t xml:space="preserve">J05AR01</t>

--- a/data-raw/antivirals.xlsx
+++ b/data-raw/antivirals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
   <si>
     <t xml:space="preserve">av</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">g</t>
   </si>
   <si>
-    <t xml:space="preserve">29113-8,78772-1,78773-9,79134-3,80118-3</t>
+    <t xml:space="preserve">29113-8,30273-7,30287-7,30303-2,78772-1,78773-9,79134-3,80118-3</t>
   </si>
   <si>
     <t xml:space="preserve">ACI</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">agenerase,carbamate,prozei</t>
   </si>
   <si>
-    <t xml:space="preserve">29114-6,31028-4,78791-1</t>
+    <t xml:space="preserve">29114-6,30296-8,30297-6,30299-2,31028-4,49623-2,78791-1</t>
   </si>
   <si>
     <t xml:space="preserve">ASU</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">atazanavir base,latazanavir,reyataz,zrivada</t>
   </si>
   <si>
-    <t xml:space="preserve">41470-6,78796-0,78797-8,80142-3,80143-1</t>
+    <t xml:space="preserve">41403-7,41470-6,41993-7,49618-2,49668-7,57907-8,78796-0,78797-8,80142-3,80143-1</t>
   </si>
   <si>
     <t xml:space="preserve">ATA+COBI</t>
@@ -185,6 +185,9 @@
     <t xml:space="preserve">J05AR23</t>
   </si>
   <si>
+    <t xml:space="preserve">49618-2,57907-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAM</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t xml:space="preserve">victrelis</t>
   </si>
   <si>
+    <t xml:space="preserve">72859-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRIN</t>
   </si>
   <si>
@@ -257,6 +263,9 @@
     <t xml:space="preserve">cabenuva</t>
   </si>
   <si>
+    <t xml:space="preserve">96566-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">CID</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
     <t xml:space="preserve">cidofovir anhydrous,cidofovir gel,cidofovir hydrate,cidofovirum,forvade,hpmpc dihydrate,phosphonic acid,vistide</t>
   </si>
   <si>
+    <t xml:space="preserve">33628-9,72855-0,72856-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLE</t>
   </si>
   <si>
@@ -302,6 +314,9 @@
     <t xml:space="preserve">daklinza</t>
   </si>
   <si>
+    <t xml:space="preserve">82379-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAC+ASU+BEC</t>
   </si>
   <si>
@@ -323,7 +338,7 @@
     <t xml:space="preserve">carbamate,darunavirum,derunavir,prezista,prezista naive</t>
   </si>
   <si>
-    <t xml:space="preserve">57954-0</t>
+    <t xml:space="preserve">49630-7,49666-1,55091-3,57954-0,57955-7</t>
   </si>
   <si>
     <t xml:space="preserve">DAR+COBI</t>
@@ -344,6 +359,9 @@
     <t xml:space="preserve">J05AR26</t>
   </si>
   <si>
+    <t xml:space="preserve">49630-7,57955-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAS</t>
   </si>
   <si>
@@ -377,7 +395,7 @@
     <t xml:space="preserve">piperazine,rescriptor</t>
   </si>
   <si>
-    <t xml:space="preserve">27082-7,29115-3</t>
+    <t xml:space="preserve">27082-7,29115-3,30276-0,30290-1,30305-7</t>
   </si>
   <si>
     <t xml:space="preserve">DID</t>
@@ -392,7 +410,7 @@
     <t xml:space="preserve">didanosina,didanosinum,dideoxyinosine,hypoxanthine ddn,videx ec</t>
   </si>
   <si>
-    <t xml:space="preserve">29116-1,48307-3</t>
+    <t xml:space="preserve">29116-1,30270-3,30284-4,30300-8,48307-3</t>
   </si>
   <si>
     <t xml:space="preserve">DOL</t>
@@ -407,6 +425,9 @@
     <t xml:space="preserve">dolutegravir  dtg,soltegravir,tivicay</t>
   </si>
   <si>
+    <t xml:space="preserve">101412-5,72857-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOL+RIL</t>
   </si>
   <si>
@@ -428,6 +449,9 @@
     <t xml:space="preserve">pifeltro</t>
   </si>
   <si>
+    <t xml:space="preserve">91897-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFA</t>
   </si>
   <si>
@@ -440,7 +464,7 @@
     <t xml:space="preserve">efavirenz teva,efavirenzum,eravirenz,stocrin,strocin,sustiva,viraday</t>
   </si>
   <si>
-    <t xml:space="preserve">29117-9,33928-3,51907-4,51908-2</t>
+    <t xml:space="preserve">29117-9,30277-8,30291-9,30306-5,33928-3,51907-4,51908-2</t>
   </si>
   <si>
     <t xml:space="preserve">ELB</t>
@@ -455,6 +479,9 @@
     <t xml:space="preserve">methyl carbamate</t>
   </si>
   <si>
+    <t xml:space="preserve">82376-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELB+GRA</t>
   </si>
   <si>
@@ -479,7 +506,7 @@
     <t xml:space="preserve">vitekta</t>
   </si>
   <si>
-    <t xml:space="preserve">88986-5</t>
+    <t xml:space="preserve">72526-7,88986-5</t>
   </si>
   <si>
     <t xml:space="preserve">EMT</t>
@@ -494,6 +521,9 @@
     <t xml:space="preserve">coviracil,emtricitabinum,emtritabine,emtriva,racivir</t>
   </si>
   <si>
+    <t xml:space="preserve">41402-9,49669-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMT+TEA</t>
   </si>
   <si>
@@ -515,6 +545,24 @@
     <t xml:space="preserve">J05AR20</t>
   </si>
   <si>
+    <t xml:space="preserve">EMT+TEA+DAR+COBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emtricitabine/tenofovir alafenamide/darunavir/cobicistat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J05AR22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMT+TEA+ELV+COBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emtricitabine/tenofovir alafenamide/elvitegravir/cobicistat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J05AR18</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMT+TEA+RIL</t>
   </si>
   <si>
@@ -524,24 +572,6 @@
     <t xml:space="preserve">J05AR19</t>
   </si>
   <si>
-    <t xml:space="preserve">EMT+TEA+DAR+COBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emtricitabine/tenofovir alafenamide/darunavir/cobicistat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05AR22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMT+TEA+ELV+COBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emtricitabine/tenofovir alafenamide/elvitegravir/cobicistat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05AR18</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMT+TED+EFA</t>
   </si>
   <si>
@@ -551,6 +581,15 @@
     <t xml:space="preserve">J05AR06</t>
   </si>
   <si>
+    <t xml:space="preserve">EMT+TED+ELV+COBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emtricitabine/tenofovir disoproxil/elvitegravir/cobicistat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J05AR09</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMT+TED+RIL</t>
   </si>
   <si>
@@ -560,15 +599,6 @@
     <t xml:space="preserve">J05AR08</t>
   </si>
   <si>
-    <t xml:space="preserve">EMT+TED+ELV+COBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emtricitabine/tenofovir disoproxil/elvitegravir/cobicistat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05AR09</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENF</t>
   </si>
   <si>
@@ -581,6 +611,9 @@
     <t xml:space="preserve">enfurvitide,fuzeon,pentafuside</t>
   </si>
   <si>
+    <t xml:space="preserve">72858-4,82719-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENI</t>
   </si>
   <si>
@@ -605,6 +638,9 @@
     <t xml:space="preserve">baraclude,entecavir anhydrous</t>
   </si>
   <si>
+    <t xml:space="preserve">56791-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
@@ -617,7 +653,7 @@
     <t xml:space="preserve">dapy deriv,etravine,intelence</t>
   </si>
   <si>
-    <t xml:space="preserve">57961-5</t>
+    <t xml:space="preserve">52749-9,57961-5,72558-0</t>
   </si>
   <si>
     <t xml:space="preserve">FAL</t>
@@ -641,6 +677,9 @@
     <t xml:space="preserve">famciclovirum,famvir,oravir</t>
   </si>
   <si>
+    <t xml:space="preserve">72839-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAV</t>
   </si>
   <si>
@@ -665,6 +704,9 @@
     <t xml:space="preserve">amprenavir phosphate,carbamate,lexiva,telzir</t>
   </si>
   <si>
+    <t xml:space="preserve">42500-9,43736-8,51409-1,57965-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOSC</t>
   </si>
   <si>
@@ -680,6 +722,9 @@
     <t xml:space="preserve">forscarnet,foscarmet,foscavir,phosphonoformate,phosphonoformic acid</t>
   </si>
   <si>
+    <t xml:space="preserve">256-8,42317-8,72834-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOSF</t>
   </si>
   <si>
@@ -716,7 +761,7 @@
     <t xml:space="preserve">citovirax,cymevan,cymeven,cymevene,cytovene,ganciclovirum,gancyclovir,hydroxyacyclovir,virgan,vitrasert,zirgan</t>
   </si>
   <si>
-    <t xml:space="preserve">15367-6,25256-9,59798-9,59799-7,60077-5,60078-3</t>
+    <t xml:space="preserve">15367-6,25256-9,265-9,59798-9,59799-7,60077-5,60078-3,72854-3,72861-8</t>
   </si>
   <si>
     <t xml:space="preserve">GLE+PIB</t>
@@ -737,6 +782,9 @@
     <t xml:space="preserve">J05AP11</t>
   </si>
   <si>
+    <t xml:space="preserve">82523-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBA</t>
   </si>
   <si>
@@ -770,7 +818,7 @@
     <t xml:space="preserve">compound j,crixivan,indinavir anhydrous,propolis+indinavir</t>
   </si>
   <si>
-    <t xml:space="preserve">29118-7,31033-4,51918-1</t>
+    <t xml:space="preserve">29118-7,30278-6,30292-7,30307-3,31033-4,49619-0,51918-1,57984-7</t>
   </si>
   <si>
     <t xml:space="preserve">INP</t>
@@ -797,7 +845,7 @@
     <t xml:space="preserve">epivir,hepitec,heptivir,heptodin,heptovir,lamivir,lamivudeine,lamivudine teva,lamivudinum,virolam,zeffix</t>
   </si>
   <si>
-    <t xml:space="preserve">29119-5,49226-4</t>
+    <t xml:space="preserve">29119-5,30269-5,30283-6,30298-4,49226-4,49620-8</t>
   </si>
   <si>
     <t xml:space="preserve">LAM+ABA</t>
@@ -809,6 +857,15 @@
     <t xml:space="preserve">J05AR02</t>
   </si>
   <si>
+    <t xml:space="preserve">LAM+ABA+DOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamivudine/abacavir/dolutegravir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J05AR13</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAM+DOL</t>
   </si>
   <si>
@@ -836,15 +893,6 @@
     <t xml:space="preserve">J05AR12</t>
   </si>
   <si>
-    <t xml:space="preserve">LAM+ABA+DOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamivudine/abacavir/dolutegravir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05AR13</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAM+TED+DOL</t>
   </si>
   <si>
@@ -917,6 +965,9 @@
     <t xml:space="preserve">aluvia,kaletra,lopimune</t>
   </si>
   <si>
+    <t xml:space="preserve">42000-0,57997-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">LYS</t>
   </si>
   <si>
@@ -953,6 +1004,9 @@
     <t xml:space="preserve">benzimidavir,camvia</t>
   </si>
   <si>
+    <t xml:space="preserve">72853-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">MET</t>
   </si>
   <si>
@@ -992,7 +1046,7 @@
     <t xml:space="preserve">viracept</t>
   </si>
   <si>
-    <t xml:space="preserve">29120-3,32647-0,35113-0,51923-1</t>
+    <t xml:space="preserve">29120-3,30280-2,30294-3,30309-9,32647-0,35113-0,51923-1</t>
   </si>
   <si>
     <t xml:space="preserve">NEV</t>
@@ -1007,7 +1061,7 @@
     <t xml:space="preserve">nevirapine anhydrous,nevirapine teva,nevirapine),viramune,viramune ir,viramune xr</t>
   </si>
   <si>
-    <t xml:space="preserve">29121-1,32646-2,51925-6</t>
+    <t xml:space="preserve">29121-1,30275-2,30289-3,30311-5,32646-2,51925-6</t>
   </si>
   <si>
     <t xml:space="preserve">OMB+PAR+RIT</t>
@@ -1031,6 +1085,9 @@
     <t xml:space="preserve">agucort,tamiflu,tamvir</t>
   </si>
   <si>
+    <t xml:space="preserve">60440-5,60441-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEN</t>
   </si>
   <si>
@@ -1094,7 +1151,7 @@
     <t xml:space="preserve">isentress</t>
   </si>
   <si>
-    <t xml:space="preserve">72835-2</t>
+    <t xml:space="preserve">61198-8,72525-9,72835-2</t>
   </si>
   <si>
     <t xml:space="preserve">REM</t>
@@ -1136,7 +1193,7 @@
     <t xml:space="preserve">edurant,rilpivirina</t>
   </si>
   <si>
-    <t xml:space="preserve">80547-3</t>
+    <t xml:space="preserve">68463-9,72557-2,80547-3</t>
   </si>
   <si>
     <t xml:space="preserve">RIM</t>
@@ -1166,7 +1223,7 @@
     <t xml:space="preserve">empetus,norvir,norvir softgel,ritomune,ritonavirum,ritovir,viekirax,viriton</t>
   </si>
   <si>
-    <t xml:space="preserve">29122-9,31027-6,51929-8,51930-6</t>
+    <t xml:space="preserve">29122-9,30279-4,30293-5,30308-1,31027-6,51929-8,51930-6</t>
   </si>
   <si>
     <t xml:space="preserve">SAQ</t>
@@ -1181,7 +1238,7 @@
     <t xml:space="preserve">fortovase,invirase,saquinavirum</t>
   </si>
   <si>
-    <t xml:space="preserve">19051-2,29123-7,51932-2</t>
+    <t xml:space="preserve">19051-2,29123-7,30281-0,30295-0,30310-7,49621-6,51932-2,58024-1</t>
   </si>
   <si>
     <t xml:space="preserve">SIM</t>
@@ -1196,6 +1253,9 @@
     <t xml:space="preserve">olysio,simeprevir sodium</t>
   </si>
   <si>
+    <t xml:space="preserve">82522-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOF</t>
   </si>
   <si>
@@ -1208,6 +1268,9 @@
     <t xml:space="preserve">hepcinat,hepcvir,sovaldi,sovihep</t>
   </si>
   <si>
+    <t xml:space="preserve">82382-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOF+LED</t>
   </si>
   <si>
@@ -1253,7 +1316,7 @@
     <t xml:space="preserve">estavudina,sanilvudine,stavudinum,zerit xr,zerut xr</t>
   </si>
   <si>
-    <t xml:space="preserve">29124-5,49227-2</t>
+    <t xml:space="preserve">29124-5,30272-9,30286-9,30302-4,49227-2</t>
   </si>
   <si>
     <t xml:space="preserve">STA+LAM+NEV</t>
@@ -1286,6 +1349,9 @@
     <t xml:space="preserve">incivek,incivo,telavic</t>
   </si>
   <si>
+    <t xml:space="preserve">72860-0</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELB</t>
   </si>
   <si>
@@ -1298,6 +1364,9 @@
     <t xml:space="preserve">epavudine,sebivo,telbivudin,tyzeka</t>
   </si>
   <si>
+    <t xml:space="preserve">56792-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEA</t>
   </si>
   <si>
@@ -1355,7 +1424,7 @@
     <t xml:space="preserve">aptivus</t>
   </si>
   <si>
-    <t xml:space="preserve">57383-2</t>
+    <t xml:space="preserve">42535-5,43737-6,49622-4,49667-9,57383-2,58029-0</t>
   </si>
   <si>
     <t xml:space="preserve">TRO</t>
@@ -1433,7 +1502,7 @@
     <t xml:space="preserve">dideoxycytidine,interferon ad + ddc,zalcitibine</t>
   </si>
   <si>
-    <t xml:space="preserve">29125-2</t>
+    <t xml:space="preserve">29125-2,30271-1,30285-1,30301-6</t>
   </si>
   <si>
     <t xml:space="preserve">ZAN</t>
@@ -1448,6 +1517,9 @@
     <t xml:space="preserve">modified sialic acid,relenza,zanamavir,zanamivi,zanamivirhydrate</t>
   </si>
   <si>
+    <t xml:space="preserve">75029-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZID</t>
   </si>
   <si>
@@ -1460,7 +1532,7 @@
     <t xml:space="preserve">azidothymidine,beta interferon,compound s,propolis+azt,retrovir,trizivir,zidovudina,zidovudinum</t>
   </si>
   <si>
-    <t xml:space="preserve">29126-0,6894-0</t>
+    <t xml:space="preserve">29126-0,30268-7,30282-8,531-4,6894-0</t>
   </si>
   <si>
     <t xml:space="preserve">ZID+LAM</t>
@@ -2130,18 +2202,18 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
         <v>124081896</v>
@@ -2150,7 +2222,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
         <v>40</v>
@@ -2166,13 +2238,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
         <v>10324367</v>
@@ -2181,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="n">
         <v>2.4</v>
@@ -2192,18 +2264,18 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
         <v>483477</v>
@@ -2212,7 +2284,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -2224,13 +2296,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
         <v>446727</v>
@@ -2239,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n">
         <v>0.125</v>
@@ -2255,13 +2327,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
@@ -2280,22 +2352,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
         <v>54713659</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" t="n">
         <v>30</v>
@@ -2310,18 +2382,18 @@
         <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
         <v>60613</v>
@@ -2330,7 +2402,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2341,18 +2413,18 @@
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D18" t="n">
         <v>73115</v>
@@ -2361,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
         <v>30</v>
@@ -2377,13 +2449,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
         <v>58316387</v>
@@ -2404,13 +2476,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D20" t="n">
         <v>25154714</v>
@@ -2419,7 +2491,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G20" t="n">
         <v>60</v>
@@ -2430,18 +2502,18 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
@@ -2460,13 +2532,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" t="n">
         <v>213039</v>
@@ -2475,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G22" t="n">
         <v>1.2</v>
@@ -2486,18 +2558,18 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D23" t="n">
         <v>57327017</v>
@@ -2518,13 +2590,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -2538,18 +2610,18 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
         <v>56640146</v>
@@ -2574,13 +2646,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
@@ -2599,22 +2671,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D27" t="n">
         <v>5625</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G27" t="n">
         <v>1.2</v>
@@ -2625,18 +2697,18 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D28" t="n">
         <v>135398739</v>
@@ -2645,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G28" t="n">
         <v>0.4</v>
@@ -2656,27 +2728,27 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
         <v>54726191</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G29" t="n">
         <v>50</v>
@@ -2687,18 +2759,18 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D30" t="n">
         <v>131801472</v>
@@ -2719,22 +2791,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D31" t="n">
         <v>58460047</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G31" t="n">
         <v>0.1</v>
@@ -2745,27 +2817,27 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D32" t="n">
         <v>64139</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G32" t="n">
         <v>0.6</v>
@@ -2776,18 +2848,18 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D33" t="n">
         <v>71661251</v>
@@ -2796,7 +2868,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G33" t="n">
         <v>50</v>
@@ -2807,18 +2879,18 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D34" t="n">
         <v>91669168</v>
@@ -2827,7 +2899,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2839,40 +2911,40 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D35" t="n">
         <v>5277135</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D36" t="n">
         <v>60877</v>
@@ -2881,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G36" t="n">
         <v>0.2</v>
@@ -2892,18 +2964,18 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D37" t="n">
         <v>90469070</v>
@@ -2912,7 +2984,7 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2924,13 +2996,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
@@ -2949,13 +3021,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
@@ -2974,13 +3046,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
@@ -2999,13 +3071,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
@@ -3024,13 +3096,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -3049,13 +3121,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
@@ -3074,13 +3146,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
@@ -3099,13 +3171,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D45" t="n">
         <v>16130199</v>
@@ -3114,7 +3186,7 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -3125,18 +3197,18 @@
         <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D46" t="n">
         <v>10089466</v>
@@ -3145,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G46" t="n">
         <v>1.5</v>
@@ -3161,13 +3233,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D47" t="n">
         <v>135398508</v>
@@ -3176,7 +3248,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G47" t="n">
         <v>0.5</v>
@@ -3187,27 +3259,27 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D48" t="n">
         <v>193962</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G48" t="n">
         <v>0.4</v>
@@ -3218,18 +3290,18 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D49" t="n">
         <v>42601552</v>
@@ -3250,13 +3322,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D50" t="n">
         <v>3324</v>
@@ -3265,7 +3337,7 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G50" t="n">
         <v>0.75</v>
@@ -3276,18 +3348,18 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D51" t="n">
         <v>492405</v>
@@ -3296,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G51" t="n">
         <v>1.6</v>
@@ -3312,13 +3384,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D52" t="n">
         <v>131536</v>
@@ -3327,7 +3399,7 @@
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G52" t="n">
         <v>1.4</v>
@@ -3338,27 +3410,27 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D53" t="n">
         <v>3415</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3369,27 +3441,27 @@
         <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D54" t="n">
         <v>546</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3401,13 +3473,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D55" t="n">
         <v>11319217</v>
@@ -3416,7 +3488,7 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G55" t="n">
         <v>1.2</v>
@@ -3432,13 +3504,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D56" t="n">
         <v>135398740</v>
@@ -3447,7 +3519,7 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3462,18 +3534,18 @@
         <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D57" t="n">
         <v>85471918</v>
@@ -3494,13 +3566,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D58" t="n">
         <v>44603531</v>
@@ -3520,18 +3592,18 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -3550,13 +3622,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D60" t="n">
         <v>5905</v>
@@ -3565,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3577,13 +3649,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D61" t="n">
         <v>5362440</v>
@@ -3592,7 +3664,7 @@
         <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G61" t="n">
         <v>2.4</v>
@@ -3603,18 +3675,18 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D62" t="n">
         <v>135449284</v>
@@ -3623,7 +3695,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3639,13 +3711,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D63" t="n">
         <v>60825</v>
@@ -3654,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G63" t="n">
         <v>0.3</v>
@@ -3665,18 +3737,18 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
@@ -3695,13 +3767,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -3720,17 +3792,15 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
-      </c>
-      <c r="D66" t="n">
-        <v>73386700</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
         <v>53</v>
       </c>
@@ -3747,15 +3817,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
-      </c>
-      <c r="D67"/>
+        <v>289</v>
+      </c>
+      <c r="D67" t="n">
+        <v>73386700</v>
+      </c>
       <c r="E67" t="s">
         <v>53</v>
       </c>
@@ -3772,13 +3844,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
@@ -3797,13 +3869,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -3822,13 +3894,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -3847,13 +3919,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -3872,19 +3944,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C72" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D72" t="n">
         <v>502272</v>
       </c>
       <c r="E72" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
@@ -3899,13 +3971,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D73" t="n">
         <v>133082658</v>
@@ -3926,13 +3998,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="D74" t="n">
         <v>45138674</v>
@@ -3941,7 +4013,7 @@
         <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G74" t="n">
         <v>0.48</v>
@@ -3961,13 +4033,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="D75" t="n">
         <v>11979606</v>
@@ -3976,7 +4048,7 @@
         <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G75" t="n">
         <v>0.8</v>
@@ -3987,18 +4059,18 @@
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D76" t="n">
         <v>16130991</v>
@@ -4019,13 +4091,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D77" t="n">
         <v>3002977</v>
@@ -4034,7 +4106,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G77" t="n">
         <v>0.6</v>
@@ -4045,18 +4117,18 @@
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="D78" t="n">
         <v>471161</v>
@@ -4065,34 +4137,34 @@
         <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D79" t="n">
         <v>667492</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -4104,13 +4176,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D80" t="n">
         <v>71655</v>
@@ -4119,7 +4191,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="G80" t="n">
         <v>0.3</v>
@@ -4135,13 +4207,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D81" t="n">
         <v>64143</v>
@@ -4150,7 +4222,7 @@
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G81" t="n">
         <v>2.25</v>
@@ -4161,27 +4233,27 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="D82" t="n">
         <v>4463</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="G82" t="n">
         <v>0.4</v>
@@ -4192,18 +4264,18 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
@@ -4222,22 +4294,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B84" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D84" t="n">
         <v>65028</v>
       </c>
       <c r="E84" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="G84" t="n">
         <v>0.15</v>
@@ -4248,18 +4320,18 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="D85" t="n">
         <v>135398748</v>
@@ -4268,25 +4340,25 @@
         <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="D86" t="n">
         <v>9942657</v>
@@ -4295,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="G86" t="n">
         <v>90</v>
@@ -4311,22 +4383,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D87" t="n">
         <v>154234</v>
       </c>
       <c r="E87" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F87" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -4342,13 +4414,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D88" t="n">
         <v>1684</v>
@@ -4357,7 +4429,7 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -4369,22 +4441,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D89" t="n">
         <v>54671008</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G89" t="n">
         <v>0.8</v>
@@ -4395,18 +4467,18 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D90" t="n">
         <v>121304016</v>
@@ -4415,7 +4487,7 @@
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -4431,13 +4503,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D91" t="n">
         <v>37542</v>
@@ -4446,7 +4518,7 @@
         <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4457,27 +4529,27 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D92" t="n">
         <v>6451164</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="G92" t="n">
         <v>25</v>
@@ -4492,27 +4564,27 @@
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B93" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
         <v>5071</v>
       </c>
       <c r="E93" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F93" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G93" t="n">
         <v>0.2</v>
@@ -4528,13 +4600,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="D94" t="n">
         <v>392622</v>
@@ -4543,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="G94" t="n">
         <v>1.2</v>
@@ -4554,18 +4626,18 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C95" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="D95" t="n">
         <v>441243</v>
@@ -4574,7 +4646,7 @@
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="G95" t="n">
         <v>1.8</v>
@@ -4585,18 +4657,18 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B96" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D96" t="n">
         <v>24873435</v>
@@ -4605,7 +4677,7 @@
         <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="G96" t="n">
         <v>0.15</v>
@@ -4616,18 +4688,18 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B97" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D97" t="n">
         <v>45375808</v>
@@ -4636,7 +4708,7 @@
         <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G97" t="n">
         <v>0.4</v>
@@ -4647,18 +4719,18 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="D98" t="n">
         <v>72734365</v>
@@ -4667,7 +4739,7 @@
         <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4679,13 +4751,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C99" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D99" t="n">
         <v>91885554</v>
@@ -4694,7 +4766,7 @@
         <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4706,13 +4778,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B100" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
@@ -4731,13 +4803,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B101" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C101" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D101" t="n">
         <v>18283</v>
@@ -4746,7 +4818,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="G101" t="n">
         <v>80</v>
@@ -4757,18 +4829,18 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C102" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="D102" t="n">
         <v>15979285</v>
@@ -4789,13 +4861,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C103" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="D103" t="n">
         <v>16124688</v>
@@ -4816,13 +4888,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B104" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="C104" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D104" t="n">
         <v>3010818</v>
@@ -4831,7 +4903,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G104" t="n">
         <v>2.25</v>
@@ -4842,18 +4914,18 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B105" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C105" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D105" t="n">
         <v>159269</v>
@@ -4862,7 +4934,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G105" t="n">
         <v>0.6</v>
@@ -4873,18 +4945,18 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B106" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D106" t="n">
         <v>9574768</v>
@@ -4893,7 +4965,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="G106" t="n">
         <v>25</v>
@@ -4909,13 +4981,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C107" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D107" t="n">
         <v>5481350</v>
@@ -4924,7 +4996,7 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="G107" t="n">
         <v>0.245</v>
@@ -4940,13 +5012,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B108" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
@@ -4965,13 +5037,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C109" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="D109" t="n">
         <v>5475</v>
@@ -4980,7 +5052,7 @@
         <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="G109" t="n">
         <v>0.125</v>
@@ -4996,13 +5068,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="D110" t="n">
         <v>54682461</v>
@@ -5011,7 +5083,7 @@
         <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5022,27 +5094,27 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B111" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C111" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D111" t="n">
         <v>64377</v>
       </c>
       <c r="E111" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F111" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -5054,13 +5126,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="B112" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C112" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D112" t="n">
         <v>131411</v>
@@ -5069,7 +5141,7 @@
         <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="G112" t="n">
         <v>0.8</v>
@@ -5085,13 +5157,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="B113" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D113" t="n">
         <v>135398742</v>
@@ -5100,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5116,13 +5188,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="B114" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D114" t="n">
         <v>135413535</v>
@@ -5131,7 +5203,7 @@
         <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="G114" t="n">
         <v>0.9</v>
@@ -5142,18 +5214,18 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B115" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="C115" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D115" t="n">
         <v>21704</v>
@@ -5162,7 +5234,7 @@
         <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -5178,13 +5250,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="B116" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C116" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D116" t="n">
         <v>24066</v>
@@ -5193,7 +5265,7 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="G116" t="n">
         <v>2.25</v>
@@ -5204,27 +5276,27 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="B117" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="C117" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="D117" t="n">
         <v>60855</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F117" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
@@ -5235,18 +5307,18 @@
         <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>23</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="B118" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="D118" t="n">
         <v>35370</v>
@@ -5255,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="G118" t="n">
         <v>0.6</v>
@@ -5270,18 +5342,18 @@
         <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B119" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="D119"/>
       <c r="E119" t="s">
@@ -5300,13 +5372,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B120" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D120"/>
       <c r="E120" t="s">
@@ -5325,13 +5397,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B121" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="C121" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D121"/>
       <c r="E121" t="s">
